--- a/Jogos_do_Dia/2023-06-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>League</t>
   </si>
@@ -124,15 +124,15 @@
     <t>China Chinese Super League</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -142,15 +142,12 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Uruguay Segunda División</t>
+    <t>Tunisia Ligue 1</t>
   </si>
   <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Tunisia Ligue 1</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>06:30:00</t>
   </si>
   <si>
@@ -196,19 +196,28 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
     <t>Henan Jianye</t>
   </si>
   <si>
+    <t>Shanghai SIPG</t>
+  </si>
+  <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
     <t>Dalian Yifang</t>
   </si>
   <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
-    <t>Shanghai SIPG</t>
+    <t>Hammarby</t>
   </si>
   <si>
     <t>Viborg</t>
@@ -217,124 +226,85 @@
     <t>Al Ittihad</t>
   </si>
   <si>
-    <t>Hammarby</t>
-  </si>
-  <si>
     <t>Barracas Central</t>
   </si>
   <si>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
     <t>Drogheda United</t>
   </si>
   <si>
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Cork City</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Guaireña</t>
   </si>
   <si>
-    <t>Cerrito</t>
-  </si>
-  <si>
-    <t>Deportivo Maipú</t>
-  </si>
-  <si>
-    <t>Tacuarembó</t>
-  </si>
-  <si>
-    <t>Villa Dálmine</t>
+    <t>ES Tunis</t>
+  </si>
+  <si>
+    <t>Etoile du Sahel</t>
+  </si>
+  <si>
+    <t>Monastir</t>
+  </si>
+  <si>
+    <t>Tataouine</t>
   </si>
   <si>
     <t>Nueva Chicago</t>
   </si>
   <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
-    <t>Monastir</t>
-  </si>
-  <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
-    <t>ES Tunis</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Oriental</t>
-  </si>
-  <si>
-    <t>Potencia</t>
-  </si>
-  <si>
-    <t>Atenas</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
-  </si>
-  <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Rampla Juniors</t>
+    <t>Loudoun United</t>
   </si>
   <si>
     <t>Independiente</t>
   </si>
   <si>
-    <t>Loudoun United</t>
+    <t>Libertad</t>
   </si>
   <si>
     <t>York9 FC</t>
   </si>
   <si>
-    <t>Libertad</t>
-  </si>
-  <si>
     <t>Cienciano</t>
   </si>
   <si>
     <t>CD Universidad Católica</t>
   </si>
   <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>San Martín San Juan</t>
+  </si>
+  <si>
+    <t>San Diego Loyal</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
     <t>Shijiazhuang Ever Bright</t>
   </si>
   <si>
-    <t>Nantong Zhiyun</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
     <t>Midtjylland</t>
@@ -343,109 +313,67 @@
     <t>National Bank of Egypt</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
     <t>Rosario Central</t>
   </si>
   <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
   </si>
   <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
     <t>UCD</t>
   </si>
   <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
-    <t>Progreso</t>
-  </si>
-  <si>
-    <t>Club Atlético Mitre</t>
-  </si>
-  <si>
-    <t>Juventud</t>
-  </si>
-  <si>
-    <t>Chacarita Juniors</t>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
+    <t>Club Africain</t>
+  </si>
+  <si>
+    <t>Ben Guerdane</t>
+  </si>
+  <si>
+    <t>Olympique Béja</t>
   </si>
   <si>
     <t>All Boys</t>
   </si>
   <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
-    <t>Club Africain</t>
-  </si>
-  <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
-    <t>Rentistas</t>
-  </si>
-  <si>
-    <t>Ferro Carril Oeste</t>
-  </si>
-  <si>
-    <t>Uruguay Montevideo FC</t>
-  </si>
-  <si>
-    <t>Miramar Misiones</t>
-  </si>
-  <si>
-    <t>Sud América</t>
-  </si>
-  <si>
-    <t>Gimnasia Jujuy</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
-  </si>
-  <si>
-    <t>Albion</t>
+    <t>Tulsa Roughnecks</t>
   </si>
   <si>
     <t>Sarmiento</t>
   </si>
   <si>
-    <t>Tulsa Roughnecks</t>
+    <t>Sportivo Ameliano</t>
   </si>
   <si>
     <t>Atlético Ottawa</t>
   </si>
   <si>
-    <t>Sportivo Ameliano</t>
-  </si>
-  <si>
     <t>Sport Boys</t>
   </si>
   <si>
     <t>Mushuc Runa SC</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Sacramento Republic</t>
   </si>
 </sst>
 </file>
@@ -807,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>3.3</v>
@@ -1012,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF2">
         <v>1.83</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1041,97 +969,97 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3">
-        <v>1.67</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3">
+        <v>1.2</v>
+      </c>
+      <c r="M3">
+        <v>4.39</v>
+      </c>
+      <c r="N3">
+        <v>1.6</v>
+      </c>
+      <c r="O3">
+        <v>2.2</v>
+      </c>
+      <c r="P3">
+        <v>1.3</v>
+      </c>
+      <c r="Q3">
+        <v>3.34</v>
+      </c>
+      <c r="R3">
+        <v>2.11</v>
+      </c>
+      <c r="S3">
+        <v>1.69</v>
+      </c>
+      <c r="T3">
+        <v>1.04</v>
+      </c>
+      <c r="U3">
+        <v>1.14</v>
+      </c>
+      <c r="V3">
+        <v>3.66</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>0.4</v>
+      </c>
+      <c r="Y3">
+        <v>1.8</v>
+      </c>
+      <c r="Z3">
+        <v>1.2</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
         <v>1.25</v>
       </c>
-      <c r="M3">
-        <v>3.75</v>
-      </c>
-      <c r="N3">
-        <v>1.73</v>
-      </c>
-      <c r="O3">
-        <v>1.91</v>
-      </c>
-      <c r="P3">
-        <v>1.35</v>
-      </c>
-      <c r="Q3">
-        <v>3.16</v>
-      </c>
-      <c r="R3">
-        <v>1.75</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2.2</v>
-      </c>
-      <c r="U3">
-        <v>1.2</v>
-      </c>
-      <c r="V3">
-        <v>1.12</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
+      <c r="AC3">
+        <v>9.5</v>
+      </c>
+      <c r="AD3">
+        <v>4.74</v>
+      </c>
+      <c r="AE3">
         <v>1.38</v>
       </c>
-      <c r="Z3">
-        <v>1.73</v>
-      </c>
-      <c r="AA3">
-        <v>3.11</v>
-      </c>
-      <c r="AB3">
-        <v>2.75</v>
-      </c>
-      <c r="AC3">
-        <v>8</v>
-      </c>
-      <c r="AD3">
-        <v>1.62</v>
-      </c>
-      <c r="AE3">
-        <v>1.31</v>
-      </c>
       <c r="AF3">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AG3">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AH3">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AI3">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1148,19 +1076,19 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -1175,7 +1103,7 @@
         <v>4.3</v>
       </c>
       <c r="N4">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
         <v>1.95</v>
@@ -1255,97 +1183,97 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G5">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
-        <v>2.9</v>
+        <v>1.67</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M5">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
+        <v>1.95</v>
+      </c>
+      <c r="P5">
+        <v>1.35</v>
+      </c>
+      <c r="Q5">
+        <v>3.16</v>
+      </c>
+      <c r="R5">
         <v>1.75</v>
       </c>
-      <c r="P5">
-        <v>1.38</v>
-      </c>
-      <c r="Q5">
-        <v>2.85</v>
-      </c>
-      <c r="R5">
-        <v>1.7</v>
-      </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="U5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="V5">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="W5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="Z5">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="AA5">
-        <v>2.25</v>
+        <v>3.11</v>
       </c>
       <c r="AB5">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="AC5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="AE5">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AF5">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AG5">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="AH5">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI5">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1362,97 +1290,97 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G6">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="H6">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="I6">
+        <v>2.85</v>
+      </c>
+      <c r="J6">
+        <v>1.05</v>
+      </c>
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="J6">
-        <v>1.03</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
       <c r="L6">
+        <v>1.29</v>
+      </c>
+      <c r="M6">
+        <v>3.65</v>
+      </c>
+      <c r="N6">
+        <v>1.9</v>
+      </c>
+      <c r="O6">
+        <v>1.8</v>
+      </c>
+      <c r="P6">
+        <v>1.38</v>
+      </c>
+      <c r="Q6">
+        <v>2.85</v>
+      </c>
+      <c r="R6">
+        <v>1.7</v>
+      </c>
+      <c r="S6">
+        <v>2.1</v>
+      </c>
+      <c r="T6">
+        <v>1.34</v>
+      </c>
+      <c r="U6">
+        <v>1.3</v>
+      </c>
+      <c r="V6">
+        <v>1.69</v>
+      </c>
+      <c r="W6">
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
         <v>1.2</v>
       </c>
-      <c r="M6">
-        <v>4.39</v>
-      </c>
-      <c r="N6">
-        <v>1.57</v>
-      </c>
-      <c r="O6">
-        <v>2.15</v>
-      </c>
-      <c r="P6">
-        <v>1.3</v>
-      </c>
-      <c r="Q6">
-        <v>3.34</v>
-      </c>
-      <c r="R6">
-        <v>2.11</v>
-      </c>
-      <c r="S6">
-        <v>1.69</v>
-      </c>
-      <c r="T6">
-        <v>1.04</v>
-      </c>
-      <c r="U6">
-        <v>1.14</v>
-      </c>
-      <c r="V6">
-        <v>3.66</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>0.4</v>
-      </c>
-      <c r="Y6">
+      <c r="Z6">
+        <v>1.05</v>
+      </c>
+      <c r="AA6">
+        <v>2.25</v>
+      </c>
+      <c r="AB6">
         <v>1.8</v>
       </c>
-      <c r="Z6">
-        <v>1.2</v>
-      </c>
-      <c r="AA6">
-        <v>3</v>
-      </c>
-      <c r="AB6">
-        <v>1.25</v>
-      </c>
       <c r="AC6">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6">
-        <v>4.74</v>
+        <v>2.4</v>
       </c>
       <c r="AE6">
         <v>1.38</v>
       </c>
       <c r="AF6">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AG6">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AH6">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AI6">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1466,100 +1394,100 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="H7">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="J7">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="O7">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>1.17</v>
+      </c>
+      <c r="U7">
+        <v>1.25</v>
+      </c>
+      <c r="V7">
+        <v>2.15</v>
+      </c>
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="T7">
-        <v>1.5</v>
-      </c>
-      <c r="U7">
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>1.84</v>
+      </c>
+      <c r="Z7">
         <v>1.3</v>
       </c>
-      <c r="V7">
-        <v>1.52</v>
-      </c>
-      <c r="W7">
-        <v>1.59</v>
-      </c>
-      <c r="X7">
-        <v>1.59</v>
-      </c>
-      <c r="Y7">
-        <v>1.72</v>
-      </c>
-      <c r="Z7">
-        <v>1.53</v>
-      </c>
       <c r="AA7">
-        <v>3.25</v>
+        <v>3.14</v>
       </c>
       <c r="AB7">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="AC7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD7">
-        <v>2.33</v>
+        <v>4.04</v>
       </c>
       <c r="AE7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="AG7">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="AH7">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AI7">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1573,100 +1501,100 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H8">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J8">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="L8">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="M8">
+        <v>3.6</v>
+      </c>
+      <c r="N8">
+        <v>1.87</v>
+      </c>
+      <c r="O8">
+        <v>1.8</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
         <v>2.75</v>
       </c>
-      <c r="N8">
-        <v>2.25</v>
-      </c>
-      <c r="O8">
-        <v>1.6</v>
-      </c>
-      <c r="P8">
+      <c r="R8">
+        <v>1.75</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
+        <v>1.3</v>
+      </c>
+      <c r="V8">
         <v>1.52</v>
       </c>
-      <c r="Q8">
+      <c r="W8">
+        <v>1.59</v>
+      </c>
+      <c r="X8">
+        <v>1.59</v>
+      </c>
+      <c r="Y8">
+        <v>1.72</v>
+      </c>
+      <c r="Z8">
+        <v>1.53</v>
+      </c>
+      <c r="AA8">
+        <v>3.25</v>
+      </c>
+      <c r="AB8">
+        <v>1.82</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>2.33</v>
+      </c>
+      <c r="AE8">
+        <v>1.25</v>
+      </c>
+      <c r="AF8">
+        <v>1.52</v>
+      </c>
+      <c r="AG8">
+        <v>1.83</v>
+      </c>
+      <c r="AH8">
         <v>2.35</v>
       </c>
-      <c r="R8">
-        <v>1.87</v>
-      </c>
-      <c r="S8">
-        <v>1.8</v>
-      </c>
-      <c r="T8">
-        <v>1.44</v>
-      </c>
-      <c r="U8">
-        <v>1.38</v>
-      </c>
-      <c r="V8">
-        <v>1.42</v>
-      </c>
-      <c r="W8">
-        <v>1.64</v>
-      </c>
-      <c r="X8">
-        <v>0.53</v>
-      </c>
-      <c r="Y8">
-        <v>1.55</v>
-      </c>
-      <c r="Z8">
-        <v>1.21</v>
-      </c>
-      <c r="AA8">
-        <v>2.76</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1680,100 +1608,100 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G9">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="H9">
-        <v>3.83</v>
+        <v>2.95</v>
       </c>
       <c r="I9">
-        <v>4.25</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L9">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
+        <v>2.25</v>
+      </c>
+      <c r="O9">
+        <v>1.6</v>
+      </c>
+      <c r="P9">
+        <v>1.52</v>
+      </c>
+      <c r="Q9">
+        <v>2.35</v>
+      </c>
+      <c r="R9">
+        <v>1.87</v>
+      </c>
+      <c r="S9">
         <v>1.8</v>
       </c>
-      <c r="O9">
-        <v>1.91</v>
-      </c>
-      <c r="P9">
-        <v>1.3</v>
-      </c>
-      <c r="Q9">
-        <v>3.4</v>
-      </c>
-      <c r="R9">
-        <v>1.7</v>
-      </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
       <c r="T9">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="V9">
+        <v>1.42</v>
+      </c>
+      <c r="W9">
+        <v>1.64</v>
+      </c>
+      <c r="X9">
+        <v>0.53</v>
+      </c>
+      <c r="Y9">
+        <v>1.55</v>
+      </c>
+      <c r="Z9">
+        <v>1.21</v>
+      </c>
+      <c r="AA9">
+        <v>2.76</v>
+      </c>
+      <c r="AB9">
+        <v>1.68</v>
+      </c>
+      <c r="AC9">
+        <v>9.1</v>
+      </c>
+      <c r="AD9">
+        <v>2.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.19</v>
+      </c>
+      <c r="AF9">
+        <v>1.38</v>
+      </c>
+      <c r="AG9">
+        <v>1.74</v>
+      </c>
+      <c r="AH9">
         <v>2.15</v>
       </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>1.84</v>
-      </c>
-      <c r="Z9">
-        <v>1.3</v>
-      </c>
-      <c r="AA9">
-        <v>3.14</v>
-      </c>
-      <c r="AB9">
-        <v>1.34</v>
-      </c>
-      <c r="AC9">
-        <v>10</v>
-      </c>
-      <c r="AD9">
-        <v>4.04</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1.28</v>
-      </c>
-      <c r="AG9">
-        <v>1.51</v>
-      </c>
-      <c r="AH9">
-        <v>2</v>
-      </c>
       <c r="AI9">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1790,10 +1718,10 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G10">
         <v>2.9</v>
@@ -1897,97 +1825,97 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>2.75</v>
       </c>
       <c r="H11">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
         <v>2.3</v>
       </c>
       <c r="J11">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="P11">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q11">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="R11">
+        <v>1.78</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>1.5</v>
+      </c>
+      <c r="U11">
+        <v>1.28</v>
+      </c>
+      <c r="V11">
+        <v>1.42</v>
+      </c>
+      <c r="W11">
         <v>1.6</v>
       </c>
-      <c r="S11">
-        <v>2.25</v>
-      </c>
-      <c r="T11">
-        <v>1.72</v>
-      </c>
-      <c r="U11">
+      <c r="X11">
+        <v>1.1</v>
+      </c>
+      <c r="Y11">
+        <v>1.29</v>
+      </c>
+      <c r="Z11">
         <v>1.25</v>
       </c>
-      <c r="V11">
-        <v>1.3</v>
-      </c>
-      <c r="W11">
-        <v>0.89</v>
-      </c>
-      <c r="X11">
-        <v>1.6</v>
-      </c>
-      <c r="Y11">
-        <v>1.8</v>
-      </c>
-      <c r="Z11">
-        <v>1.49</v>
-      </c>
       <c r="AA11">
-        <v>3.29</v>
+        <v>2.54</v>
       </c>
       <c r="AB11">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AC11">
         <v>8</v>
       </c>
       <c r="AD11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -2004,19 +1932,19 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G12">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -2025,22 +1953,22 @@
         <v>7</v>
       </c>
       <c r="L12">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M12">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P12">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="Q12">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -2049,52 +1977,52 @@
         <v>1.75</v>
       </c>
       <c r="T12">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="U12">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V12">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="W12">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
-        <v>1.11</v>
+        <v>1.7</v>
       </c>
       <c r="Y12">
-        <v>1.17</v>
+        <v>1.92</v>
       </c>
       <c r="Z12">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AA12">
-        <v>2.64</v>
+        <v>3.12</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD12">
-        <v>2.1</v>
+        <v>3.48</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG12">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2111,97 +2039,97 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G13">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N13">
+        <v>1.8</v>
+      </c>
+      <c r="O13">
+        <v>1.9</v>
+      </c>
+      <c r="P13">
+        <v>1.35</v>
+      </c>
+      <c r="Q13">
+        <v>2.95</v>
+      </c>
+      <c r="R13">
+        <v>1.6</v>
+      </c>
+      <c r="S13">
+        <v>2.25</v>
+      </c>
+      <c r="T13">
+        <v>1.72</v>
+      </c>
+      <c r="U13">
+        <v>1.25</v>
+      </c>
+      <c r="V13">
+        <v>1.3</v>
+      </c>
+      <c r="W13">
+        <v>0.89</v>
+      </c>
+      <c r="X13">
+        <v>1.6</v>
+      </c>
+      <c r="Y13">
+        <v>1.8</v>
+      </c>
+      <c r="Z13">
+        <v>1.49</v>
+      </c>
+      <c r="AA13">
+        <v>3.29</v>
+      </c>
+      <c r="AB13">
         <v>1.91</v>
-      </c>
-      <c r="O13">
-        <v>1.73</v>
-      </c>
-      <c r="P13">
-        <v>1.44</v>
-      </c>
-      <c r="Q13">
-        <v>2.6</v>
-      </c>
-      <c r="R13">
-        <v>1.78</v>
-      </c>
-      <c r="S13">
-        <v>1.95</v>
-      </c>
-      <c r="T13">
-        <v>1.5</v>
-      </c>
-      <c r="U13">
-        <v>1.28</v>
-      </c>
-      <c r="V13">
-        <v>1.42</v>
-      </c>
-      <c r="W13">
-        <v>1.6</v>
-      </c>
-      <c r="X13">
-        <v>1.1</v>
-      </c>
-      <c r="Y13">
-        <v>1.29</v>
-      </c>
-      <c r="Z13">
-        <v>1.25</v>
-      </c>
-      <c r="AA13">
-        <v>2.54</v>
-      </c>
-      <c r="AB13">
-        <v>2.05</v>
       </c>
       <c r="AC13">
         <v>8</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG13">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2218,19 +2146,19 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G14">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="J14">
         <v>1.08</v>
@@ -2239,22 +2167,22 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M14">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="N14">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O14">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P14">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q14">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -2263,52 +2191,52 @@
         <v>1.75</v>
       </c>
       <c r="T14">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="U14">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V14">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="W14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X14">
-        <v>1.7</v>
+        <v>1.11</v>
       </c>
       <c r="Y14">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
       <c r="Z14">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AA14">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="AB14">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="AC14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD14">
-        <v>3.48</v>
+        <v>2.1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2325,19 +2253,19 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G15">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="H15">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2355,7 +2283,7 @@
         <v>1.36</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P15">
         <v>1.17</v>
@@ -2403,19 +2331,19 @@
         <v>11</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2432,13 +2360,13 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G16">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H16">
         <v>3.1</v>
@@ -2459,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O16">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2536,13 +2464,13 @@
         <v>56</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2593,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="W17">
+        <v>1.96</v>
+      </c>
+      <c r="X17">
+        <v>1.21</v>
+      </c>
+      <c r="Y17">
         <v>2</v>
       </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="Y17">
-        <v>1.23</v>
-      </c>
       <c r="Z17">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA17">
-        <v>2.53</v>
+        <v>3.27</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2634,7 +2562,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
         <v>45086</v>
@@ -2643,13 +2571,13 @@
         <v>56</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2700,19 +2628,19 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="X18">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="Y18">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Z18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>3.39</v>
+        <v>2.24</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2750,13 +2678,13 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2807,19 +2735,19 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0.8</v>
+        <v>1.79</v>
       </c>
       <c r="X19">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Z19">
-        <v>1.58</v>
+        <v>1.19</v>
       </c>
       <c r="AA19">
-        <v>1.58</v>
+        <v>2.51</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2848,7 +2776,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>45086</v>
@@ -2857,13 +2785,13 @@
         <v>56</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2914,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>1.56</v>
+        <v>0.83</v>
       </c>
       <c r="X20">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="Y20">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="Z20">
-        <v>1.42</v>
+        <v>0.99</v>
       </c>
       <c r="AA20">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2967,58 +2895,58 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>1.89</v>
@@ -3036,28 +2964,28 @@
         <v>2.38</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3068,79 +2996,79 @@
         <v>45086</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W22">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z22">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AA22">
-        <v>2.31</v>
+        <v>2.94</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3169,138 +3097,138 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2">
         <v>45086</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W23">
-        <v>1.87</v>
+        <v>1.11</v>
       </c>
       <c r="X23">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="Y23">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="Z23">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AA23">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
         <v>45086</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3315,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3342,19 +3270,19 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2.13</v>
+        <v>2.8</v>
       </c>
       <c r="X24">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="Y24">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AA24">
-        <v>2.24</v>
+        <v>3.12</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3383,85 +3311,85 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
         <v>45086</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W25">
-        <v>1.91</v>
+        <v>0.75</v>
       </c>
       <c r="X25">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="Y25">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="Z25">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AA25">
-        <v>3.24</v>
+        <v>2.7</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3490,85 +3418,85 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>45086</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W26">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="X26">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="Z26">
-        <v>1.29</v>
+        <v>0.9</v>
       </c>
       <c r="AA26">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3597,317 +3525,317 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
         <v>45086</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="W27">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="X27">
-        <v>1.67</v>
+        <v>0.14</v>
       </c>
       <c r="Y27">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="Z27">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="AA27">
-        <v>3.11</v>
+        <v>2.6</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>45086</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Y28">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="Z28">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="AA28">
-        <v>2.67</v>
+        <v>2.94</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
         <v>45086</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29">
+        <v>1.63</v>
+      </c>
+      <c r="H29">
+        <v>3.64</v>
+      </c>
+      <c r="I29">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>1.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y29">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="Z29">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AA29">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -3918,85 +3846,85 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>45086</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W30">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y30">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="Z30">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AA30">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4020,1397 +3948,6 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>1.22</v>
-      </c>
-      <c r="X31">
-        <v>0.88</v>
-      </c>
-      <c r="Y31">
-        <v>1.35</v>
-      </c>
-      <c r="Z31">
-        <v>1.23</v>
-      </c>
-      <c r="AA31">
-        <v>2.58</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>1.78</v>
-      </c>
-      <c r="X32">
-        <v>0.78</v>
-      </c>
-      <c r="Y32">
-        <v>1.41</v>
-      </c>
-      <c r="Z32">
-        <v>1.28</v>
-      </c>
-      <c r="AA32">
-        <v>2.69</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>1.56</v>
-      </c>
-      <c r="X33">
-        <v>0.67</v>
-      </c>
-      <c r="Y33">
-        <v>1.53</v>
-      </c>
-      <c r="Z33">
-        <v>1.37</v>
-      </c>
-      <c r="AA33">
-        <v>2.9</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>1.56</v>
-      </c>
-      <c r="X34">
-        <v>1.33</v>
-      </c>
-      <c r="Y34">
-        <v>1.6</v>
-      </c>
-      <c r="Z34">
-        <v>1.22</v>
-      </c>
-      <c r="AA34">
-        <v>2.82</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>1.22</v>
-      </c>
-      <c r="X35">
-        <v>0.78</v>
-      </c>
-      <c r="Y35">
-        <v>1.43</v>
-      </c>
-      <c r="Z35">
-        <v>1.41</v>
-      </c>
-      <c r="AA35">
-        <v>2.84</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>2.38</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>1.83</v>
-      </c>
-      <c r="Z36">
-        <v>1.2</v>
-      </c>
-      <c r="AA36">
-        <v>3.03</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>1.6</v>
-      </c>
-      <c r="X37">
-        <v>1.2</v>
-      </c>
-      <c r="Y37">
-        <v>1.26</v>
-      </c>
-      <c r="Z37">
-        <v>1.74</v>
-      </c>
-      <c r="AA37">
-        <v>3</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38">
-        <v>2.1</v>
-      </c>
-      <c r="H38">
-        <v>3.2</v>
-      </c>
-      <c r="I38">
-        <v>3.5</v>
-      </c>
-      <c r="J38">
-        <v>1.1</v>
-      </c>
-      <c r="K38">
-        <v>6.5</v>
-      </c>
-      <c r="L38">
-        <v>1.44</v>
-      </c>
-      <c r="M38">
-        <v>2.62</v>
-      </c>
-      <c r="N38">
-        <v>2.38</v>
-      </c>
-      <c r="O38">
-        <v>1.53</v>
-      </c>
-      <c r="P38">
-        <v>1.44</v>
-      </c>
-      <c r="Q38">
-        <v>2.62</v>
-      </c>
-      <c r="R38">
-        <v>2.05</v>
-      </c>
-      <c r="S38">
-        <v>1.7</v>
-      </c>
-      <c r="T38">
-        <v>1.25</v>
-      </c>
-      <c r="U38">
-        <v>1.36</v>
-      </c>
-      <c r="V38">
-        <v>1.65</v>
-      </c>
-      <c r="W38">
-        <v>1.11</v>
-      </c>
-      <c r="X38">
-        <v>1.3</v>
-      </c>
-      <c r="Y38">
-        <v>1.48</v>
-      </c>
-      <c r="Z38">
-        <v>1.2</v>
-      </c>
-      <c r="AA38">
-        <v>2.68</v>
-      </c>
-      <c r="AB38">
-        <v>1.41</v>
-      </c>
-      <c r="AC38">
-        <v>9</v>
-      </c>
-      <c r="AD38">
-        <v>3.48</v>
-      </c>
-      <c r="AE38">
-        <v>1.25</v>
-      </c>
-      <c r="AF38">
-        <v>1.47</v>
-      </c>
-      <c r="AG38">
-        <v>1.83</v>
-      </c>
-      <c r="AH38">
-        <v>2.38</v>
-      </c>
-      <c r="AI38">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39">
-        <v>2.25</v>
-      </c>
-      <c r="H39">
-        <v>3.4</v>
-      </c>
-      <c r="I39">
-        <v>2.7</v>
-      </c>
-      <c r="J39">
-        <v>1.03</v>
-      </c>
-      <c r="K39">
-        <v>14.75</v>
-      </c>
-      <c r="L39">
-        <v>1.2</v>
-      </c>
-      <c r="M39">
-        <v>4.02</v>
-      </c>
-      <c r="N39">
-        <v>1.75</v>
-      </c>
-      <c r="O39">
-        <v>1.95</v>
-      </c>
-      <c r="P39">
-        <v>1.33</v>
-      </c>
-      <c r="Q39">
-        <v>3.04</v>
-      </c>
-      <c r="R39">
-        <v>1.57</v>
-      </c>
-      <c r="S39">
-        <v>2.3</v>
-      </c>
-      <c r="T39">
-        <v>1.36</v>
-      </c>
-      <c r="U39">
-        <v>1.25</v>
-      </c>
-      <c r="V39">
-        <v>1.55</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39">
-        <v>1.75</v>
-      </c>
-      <c r="Z39">
-        <v>1.19</v>
-      </c>
-      <c r="AA39">
-        <v>2.94</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0.75</v>
-      </c>
-      <c r="X40">
-        <v>1.33</v>
-      </c>
-      <c r="Y40">
-        <v>1.55</v>
-      </c>
-      <c r="Z40">
-        <v>1.15</v>
-      </c>
-      <c r="AA40">
-        <v>2.7</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41">
-        <v>1.33</v>
-      </c>
-      <c r="H41">
-        <v>4.33</v>
-      </c>
-      <c r="I41">
-        <v>8</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1.67</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>2.8</v>
-      </c>
-      <c r="X41">
-        <v>1.6</v>
-      </c>
-      <c r="Y41">
-        <v>1.75</v>
-      </c>
-      <c r="Z41">
-        <v>1.37</v>
-      </c>
-      <c r="AA41">
-        <v>3.12</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42">
-        <v>1.3</v>
-      </c>
-      <c r="H42">
-        <v>5.6</v>
-      </c>
-      <c r="I42">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J42">
-        <v>1.02</v>
-      </c>
-      <c r="K42">
-        <v>17</v>
-      </c>
-      <c r="L42">
-        <v>1.18</v>
-      </c>
-      <c r="M42">
-        <v>5</v>
-      </c>
-      <c r="N42">
-        <v>1.55</v>
-      </c>
-      <c r="O42">
-        <v>2.3</v>
-      </c>
-      <c r="P42">
-        <v>1.28</v>
-      </c>
-      <c r="Q42">
-        <v>3.6</v>
-      </c>
-      <c r="R42">
-        <v>1.9</v>
-      </c>
-      <c r="S42">
-        <v>1.83</v>
-      </c>
-      <c r="T42">
-        <v>1.02</v>
-      </c>
-      <c r="U42">
-        <v>1.11</v>
-      </c>
-      <c r="V42">
-        <v>3.5</v>
-      </c>
-      <c r="W42">
-        <v>2.25</v>
-      </c>
-      <c r="X42">
-        <v>0.25</v>
-      </c>
-      <c r="Y42">
-        <v>1.47</v>
-      </c>
-      <c r="Z42">
-        <v>0.9</v>
-      </c>
-      <c r="AA42">
-        <v>2.37</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45086</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43">
-        <v>1.4</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43">
-        <v>7.5</v>
-      </c>
-      <c r="J43">
-        <v>1.04</v>
-      </c>
-      <c r="K43">
-        <v>10.5</v>
-      </c>
-      <c r="L43">
-        <v>1.25</v>
-      </c>
-      <c r="M43">
-        <v>3.75</v>
-      </c>
-      <c r="N43">
-        <v>1.8</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <v>1.35</v>
-      </c>
-      <c r="Q43">
-        <v>3.04</v>
-      </c>
-      <c r="R43">
-        <v>1.96</v>
-      </c>
-      <c r="S43">
-        <v>1.8</v>
-      </c>
-      <c r="T43">
-        <v>1.07</v>
-      </c>
-      <c r="U43">
-        <v>1.18</v>
-      </c>
-      <c r="V43">
-        <v>2.66</v>
-      </c>
-      <c r="W43">
-        <v>1.67</v>
-      </c>
-      <c r="X43">
-        <v>0.14</v>
-      </c>
-      <c r="Y43">
-        <v>1.54</v>
-      </c>
-      <c r="Z43">
-        <v>1.06</v>
-      </c>
-      <c r="AA43">
-        <v>2.6</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -124,15 +124,15 @@
     <t>China Chinese Super League</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -205,48 +205,54 @@
     <t>Henan Jianye</t>
   </si>
   <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
     <t>Shanghai SIPG</t>
   </si>
   <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Dalian Yifang</t>
   </si>
   <si>
-    <t>Meizhou Hakka</t>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Al Ittihad</t>
   </si>
   <si>
     <t>Hammarby</t>
   </si>
   <si>
-    <t>Viborg</t>
-  </si>
-  <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
     <t>Barracas Central</t>
   </si>
   <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
     <t>Cork City</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Guaireña</t>
   </si>
   <si>
+    <t>Tataouine</t>
+  </si>
+  <si>
+    <t>Nueva Chicago</t>
+  </si>
+  <si>
     <t>ES Tunis</t>
   </si>
   <si>
@@ -256,18 +262,12 @@
     <t>Monastir</t>
   </si>
   <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
-    <t>Nueva Chicago</t>
+    <t>Independiente</t>
   </si>
   <si>
     <t>Loudoun United</t>
   </si>
   <si>
-    <t>Independiente</t>
-  </si>
-  <si>
     <t>Libertad</t>
   </si>
   <si>
@@ -292,48 +292,54 @@
     <t>Hangzhou</t>
   </si>
   <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
     <t>Nantong Zhiyun</t>
   </si>
   <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
-    <t>Shijiazhuang Ever Bright</t>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>National Bank of Egypt</t>
   </si>
   <si>
     <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
     <t>Rosario Central</t>
   </si>
   <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
     <t>Dundalk</t>
   </si>
   <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
     <t>UCD</t>
   </si>
   <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
+    <t>Olympique Béja</t>
+  </si>
+  <si>
+    <t>All Boys</t>
+  </si>
+  <si>
     <t>CS Sfaxien</t>
   </si>
   <si>
@@ -343,16 +349,10 @@
     <t>Ben Guerdane</t>
   </si>
   <si>
-    <t>Olympique Béja</t>
-  </si>
-  <si>
-    <t>All Boys</t>
+    <t>Sarmiento</t>
   </si>
   <si>
     <t>Tulsa Roughnecks</t>
-  </si>
-  <si>
-    <t>Sarmiento</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -916,10 +916,10 @@
         <v>1.33</v>
       </c>
       <c r="W2">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Y2">
         <v>1.1</v>
@@ -975,91 +975,91 @@
         <v>92</v>
       </c>
       <c r="G3">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>3.13</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="J3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3">
+        <v>1.29</v>
+      </c>
+      <c r="M3">
+        <v>3.65</v>
+      </c>
+      <c r="N3">
+        <v>1.95</v>
+      </c>
+      <c r="O3">
+        <v>1.8</v>
+      </c>
+      <c r="P3">
+        <v>1.38</v>
+      </c>
+      <c r="Q3">
+        <v>2.85</v>
+      </c>
+      <c r="R3">
+        <v>1.7</v>
+      </c>
+      <c r="S3">
+        <v>2.1</v>
+      </c>
+      <c r="T3">
+        <v>1.34</v>
+      </c>
+      <c r="U3">
+        <v>1.3</v>
+      </c>
+      <c r="V3">
+        <v>1.69</v>
+      </c>
+      <c r="W3">
+        <v>0.67</v>
+      </c>
+      <c r="X3">
+        <v>1.33</v>
+      </c>
+      <c r="Y3">
         <v>1.2</v>
       </c>
-      <c r="M3">
-        <v>4.39</v>
-      </c>
-      <c r="N3">
-        <v>1.6</v>
-      </c>
-      <c r="O3">
-        <v>2.2</v>
-      </c>
-      <c r="P3">
-        <v>1.3</v>
-      </c>
-      <c r="Q3">
-        <v>3.34</v>
-      </c>
-      <c r="R3">
-        <v>2.11</v>
-      </c>
-      <c r="S3">
-        <v>1.69</v>
-      </c>
-      <c r="T3">
-        <v>1.04</v>
-      </c>
-      <c r="U3">
-        <v>1.14</v>
-      </c>
-      <c r="V3">
-        <v>3.66</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>0.4</v>
-      </c>
-      <c r="Y3">
+      <c r="Z3">
+        <v>1.05</v>
+      </c>
+      <c r="AA3">
+        <v>2.25</v>
+      </c>
+      <c r="AB3">
         <v>1.8</v>
       </c>
-      <c r="Z3">
-        <v>1.2</v>
-      </c>
-      <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3">
-        <v>1.25</v>
-      </c>
       <c r="AC3">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD3">
-        <v>4.74</v>
+        <v>2.4</v>
       </c>
       <c r="AE3">
         <v>1.38</v>
       </c>
       <c r="AF3">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AG3">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AH3">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AI3">
-        <v>4.04</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1082,13 +1082,13 @@
         <v>93</v>
       </c>
       <c r="G4">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -1103,7 +1103,7 @@
         <v>4.3</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
         <v>1.95</v>
@@ -1130,7 +1130,7 @@
         <v>1.49</v>
       </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1189,91 +1189,91 @@
         <v>94</v>
       </c>
       <c r="G5">
-        <v>4.33</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>1.03</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>1.2</v>
+      </c>
+      <c r="M5">
+        <v>4.39</v>
+      </c>
+      <c r="N5">
         <v>1.67</v>
       </c>
-      <c r="J5">
-        <v>1.01</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
+      <c r="O5">
+        <v>2.15</v>
+      </c>
+      <c r="P5">
+        <v>1.3</v>
+      </c>
+      <c r="Q5">
+        <v>3.34</v>
+      </c>
+      <c r="R5">
+        <v>2.11</v>
+      </c>
+      <c r="S5">
+        <v>1.69</v>
+      </c>
+      <c r="T5">
+        <v>1.04</v>
+      </c>
+      <c r="U5">
+        <v>1.14</v>
+      </c>
+      <c r="V5">
+        <v>3.66</v>
+      </c>
+      <c r="W5">
+        <v>2.17</v>
+      </c>
+      <c r="X5">
+        <v>0.33</v>
+      </c>
+      <c r="Y5">
+        <v>1.8</v>
+      </c>
+      <c r="Z5">
+        <v>1.2</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
         <v>1.25</v>
       </c>
-      <c r="M5">
-        <v>3.75</v>
-      </c>
-      <c r="N5">
-        <v>1.75</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>1.35</v>
-      </c>
-      <c r="Q5">
-        <v>3.16</v>
-      </c>
-      <c r="R5">
-        <v>1.75</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2.2</v>
-      </c>
-      <c r="U5">
-        <v>1.2</v>
-      </c>
-      <c r="V5">
-        <v>1.12</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
+      <c r="AC5">
+        <v>9.5</v>
+      </c>
+      <c r="AD5">
+        <v>4.74</v>
+      </c>
+      <c r="AE5">
         <v>1.38</v>
       </c>
-      <c r="Z5">
-        <v>1.73</v>
-      </c>
-      <c r="AA5">
-        <v>3.11</v>
-      </c>
-      <c r="AB5">
-        <v>2.75</v>
-      </c>
-      <c r="AC5">
-        <v>8</v>
-      </c>
-      <c r="AD5">
-        <v>1.62</v>
-      </c>
-      <c r="AE5">
-        <v>1.31</v>
-      </c>
       <c r="AF5">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AG5">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AH5">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AI5">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1296,91 +1296,91 @@
         <v>95</v>
       </c>
       <c r="G6">
+        <v>4.2</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <v>1.67</v>
+      </c>
+      <c r="J6">
+        <v>1.01</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>1.25</v>
+      </c>
+      <c r="M6">
+        <v>3.75</v>
+      </c>
+      <c r="N6">
+        <v>1.75</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>1.35</v>
+      </c>
+      <c r="Q6">
+        <v>3.16</v>
+      </c>
+      <c r="R6">
+        <v>1.75</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
         <v>2.2</v>
       </c>
-      <c r="H6">
-        <v>3.35</v>
-      </c>
-      <c r="I6">
-        <v>2.85</v>
-      </c>
-      <c r="J6">
-        <v>1.05</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>1.29</v>
-      </c>
-      <c r="M6">
-        <v>3.65</v>
-      </c>
-      <c r="N6">
-        <v>1.9</v>
-      </c>
-      <c r="O6">
-        <v>1.8</v>
-      </c>
-      <c r="P6">
-        <v>1.38</v>
-      </c>
-      <c r="Q6">
-        <v>2.85</v>
-      </c>
-      <c r="R6">
-        <v>1.7</v>
-      </c>
-      <c r="S6">
-        <v>2.1</v>
-      </c>
-      <c r="T6">
-        <v>1.34</v>
-      </c>
       <c r="U6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="V6">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="W6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="AA6">
-        <v>2.25</v>
+        <v>3.11</v>
       </c>
       <c r="AB6">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="AC6">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="AE6">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AF6">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AG6">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="AH6">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI6">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1394,7 +1394,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -1403,91 +1403,91 @@
         <v>96</v>
       </c>
       <c r="G7">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3.26</v>
       </c>
       <c r="I7">
-        <v>4.5</v>
+        <v>2.43</v>
       </c>
       <c r="J7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="L7">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="O7">
-        <v>2.17</v>
+        <v>1.76</v>
       </c>
       <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>2.75</v>
+      </c>
+      <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1.5</v>
+      </c>
+      <c r="U7">
         <v>1.3</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
+        <v>1.52</v>
+      </c>
+      <c r="W7">
+        <v>1.59</v>
+      </c>
+      <c r="X7">
+        <v>1.59</v>
+      </c>
+      <c r="Y7">
+        <v>1.72</v>
+      </c>
+      <c r="Z7">
+        <v>1.53</v>
+      </c>
+      <c r="AA7">
+        <v>3.25</v>
+      </c>
+      <c r="AB7">
+        <v>1.82</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>2.33</v>
+      </c>
+      <c r="AE7">
+        <v>1.25</v>
+      </c>
+      <c r="AF7">
+        <v>1.52</v>
+      </c>
+      <c r="AG7">
+        <v>1.83</v>
+      </c>
+      <c r="AH7">
+        <v>2.35</v>
+      </c>
+      <c r="AI7">
         <v>3.4</v>
-      </c>
-      <c r="R7">
-        <v>1.7</v>
-      </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
-      <c r="T7">
-        <v>1.17</v>
-      </c>
-      <c r="U7">
-        <v>1.25</v>
-      </c>
-      <c r="V7">
-        <v>2.15</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7">
-        <v>1.84</v>
-      </c>
-      <c r="Z7">
-        <v>1.3</v>
-      </c>
-      <c r="AA7">
-        <v>3.14</v>
-      </c>
-      <c r="AB7">
-        <v>1.34</v>
-      </c>
-      <c r="AC7">
-        <v>10</v>
-      </c>
-      <c r="AD7">
-        <v>4.04</v>
-      </c>
-      <c r="AE7">
-        <v>1.2</v>
-      </c>
-      <c r="AF7">
-        <v>1.28</v>
-      </c>
-      <c r="AG7">
-        <v>1.51</v>
-      </c>
-      <c r="AH7">
-        <v>2</v>
-      </c>
-      <c r="AI7">
-        <v>2.45</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1501,7 +1501,7 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
@@ -1510,91 +1510,91 @@
         <v>97</v>
       </c>
       <c r="G8">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="H8">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I8">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="L8">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>1.53</v>
+      </c>
+      <c r="P8">
+        <v>1.52</v>
+      </c>
+      <c r="Q8">
+        <v>2.35</v>
+      </c>
+      <c r="R8">
         <v>1.87</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>1.8</v>
       </c>
-      <c r="P8">
-        <v>1.4</v>
-      </c>
-      <c r="Q8">
-        <v>2.75</v>
-      </c>
-      <c r="R8">
-        <v>1.75</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U8">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="V8">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="W8">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X8">
-        <v>1.59</v>
+        <v>0.53</v>
       </c>
       <c r="Y8">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="AA8">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="AB8">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AD8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AE8">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AF8">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AG8">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AH8">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AI8">
-        <v>3.4</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1608,7 +1608,7 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
@@ -1617,91 +1617,91 @@
         <v>98</v>
       </c>
       <c r="G9">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="H9">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="Q9">
-        <v>2.35</v>
+        <v>3.4</v>
       </c>
       <c r="R9">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="U9">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>1.42</v>
+        <v>2.15</v>
       </c>
       <c r="W9">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>0.53</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="Z9">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AA9">
-        <v>2.76</v>
+        <v>3.14</v>
       </c>
       <c r="AB9">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AC9">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>2.5</v>
+        <v>4.04</v>
       </c>
       <c r="AE9">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AF9">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AG9">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="AH9">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>2.79</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1831,91 +1831,91 @@
         <v>100</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>1.76</v>
       </c>
       <c r="H11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>2.3</v>
+        <v>4.34</v>
       </c>
       <c r="J11">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
+        <v>1.57</v>
+      </c>
+      <c r="P11">
+        <v>1.51</v>
+      </c>
+      <c r="Q11">
+        <v>2.4</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.75</v>
       </c>
-      <c r="P11">
-        <v>1.44</v>
-      </c>
-      <c r="Q11">
-        <v>2.6</v>
-      </c>
-      <c r="R11">
-        <v>1.78</v>
-      </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
       <c r="T11">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="U11">
         <v>1.28</v>
       </c>
       <c r="V11">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="W11">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y11">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Z11">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AA11">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="AB11">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AC11">
         <v>8</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AE11">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AF11">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AG11">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH11">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="AI11">
-        <v>3.14</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1938,91 +1938,91 @@
         <v>101</v>
       </c>
       <c r="G12">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="I12">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="J12">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1.72</v>
+      </c>
+      <c r="O12">
+        <v>1.89</v>
+      </c>
+      <c r="P12">
+        <v>1.35</v>
+      </c>
+      <c r="Q12">
         <v>2.95</v>
       </c>
-      <c r="N12">
-        <v>2.1</v>
-      </c>
-      <c r="O12">
-        <v>1.65</v>
-      </c>
-      <c r="P12">
-        <v>1.46</v>
-      </c>
-      <c r="Q12">
-        <v>2.55</v>
-      </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="S12">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.12</v>
+        <v>1.72</v>
       </c>
       <c r="U12">
         <v>1.25</v>
       </c>
       <c r="V12">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="X12">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Y12">
+        <v>1.8</v>
+      </c>
+      <c r="Z12">
+        <v>1.49</v>
+      </c>
+      <c r="AA12">
+        <v>3.29</v>
+      </c>
+      <c r="AB12">
+        <v>1.91</v>
+      </c>
+      <c r="AC12">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>2.2</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
+        <v>1.29</v>
+      </c>
+      <c r="AG12">
+        <v>1.54</v>
+      </c>
+      <c r="AH12">
         <v>1.92</v>
       </c>
-      <c r="Z12">
-        <v>1.2</v>
-      </c>
-      <c r="AA12">
-        <v>3.12</v>
-      </c>
-      <c r="AB12">
-        <v>1.41</v>
-      </c>
-      <c r="AC12">
-        <v>9</v>
-      </c>
-      <c r="AD12">
-        <v>3.48</v>
-      </c>
-      <c r="AE12">
-        <v>1.27</v>
-      </c>
-      <c r="AF12">
-        <v>1.53</v>
-      </c>
-      <c r="AG12">
-        <v>1.91</v>
-      </c>
-      <c r="AH12">
-        <v>2.49</v>
-      </c>
       <c r="AI12">
-        <v>3.34</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2045,91 +2045,91 @@
         <v>102</v>
       </c>
       <c r="G13">
-        <v>3.2</v>
+        <v>2.39</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="J13">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O13">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="P13">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q13">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="R13">
+        <v>1.78</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
+        <v>1.5</v>
+      </c>
+      <c r="U13">
+        <v>1.28</v>
+      </c>
+      <c r="V13">
+        <v>1.42</v>
+      </c>
+      <c r="W13">
         <v>1.6</v>
       </c>
-      <c r="S13">
-        <v>2.25</v>
-      </c>
-      <c r="T13">
-        <v>1.72</v>
-      </c>
-      <c r="U13">
+      <c r="X13">
+        <v>1.1</v>
+      </c>
+      <c r="Y13">
+        <v>1.29</v>
+      </c>
+      <c r="Z13">
         <v>1.25</v>
       </c>
-      <c r="V13">
-        <v>1.3</v>
-      </c>
-      <c r="W13">
-        <v>0.89</v>
-      </c>
-      <c r="X13">
-        <v>1.6</v>
-      </c>
-      <c r="Y13">
-        <v>1.8</v>
-      </c>
-      <c r="Z13">
-        <v>1.49</v>
-      </c>
       <c r="AA13">
-        <v>3.29</v>
+        <v>2.54</v>
       </c>
       <c r="AB13">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AC13">
         <v>8</v>
       </c>
       <c r="AD13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF13">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AG13">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AH13">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="AI13">
-        <v>2.46</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2152,13 +2152,13 @@
         <v>103</v>
       </c>
       <c r="G14">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14">
-        <v>3.15</v>
+        <v>4.82</v>
       </c>
       <c r="J14">
         <v>1.08</v>
@@ -2167,22 +2167,22 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M14">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="N14">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O14">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P14">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="Q14">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -2191,52 +2191,52 @@
         <v>1.75</v>
       </c>
       <c r="T14">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="U14">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V14">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="W14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X14">
-        <v>1.11</v>
+        <v>1.7</v>
       </c>
       <c r="Y14">
-        <v>1.17</v>
+        <v>1.92</v>
       </c>
       <c r="Z14">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AA14">
-        <v>2.64</v>
+        <v>3.12</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD14">
-        <v>2.1</v>
+        <v>3.48</v>
       </c>
       <c r="AE14">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AF14">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AG14">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AH14">
-        <v>2.8</v>
+        <v>2.49</v>
       </c>
       <c r="AI14">
-        <v>3.92</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2259,13 +2259,13 @@
         <v>104</v>
       </c>
       <c r="G15">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>7.18</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>20.43</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2366,13 +2366,13 @@
         <v>105</v>
       </c>
       <c r="G16">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H16">
         <v>3.1</v>
       </c>
       <c r="I16">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2387,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O16">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1.96</v>
+        <v>0.83</v>
       </c>
       <c r="X17">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
-        <v>1.27</v>
+        <v>0.99</v>
       </c>
       <c r="AA17">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>45086</v>
@@ -2571,7 +2571,7 @@
         <v>56</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>78</v>
@@ -2580,91 +2580,91 @@
         <v>107</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>2.17</v>
+        <v>1.89</v>
       </c>
       <c r="X18">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AA18">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2735,19 +2735,19 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="X19">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="Y19">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="Z19">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AA19">
-        <v>2.51</v>
+        <v>3.27</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0.83</v>
+        <v>2.17</v>
       </c>
       <c r="X20">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="Y20">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="Z20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>45086</v>
@@ -2892,7 +2892,7 @@
         <v>56</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
@@ -2901,96 +2901,96 @@
         <v>110</v>
       </c>
       <c r="G21">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="Y21">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Z21">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AA21">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="AB21">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>45086</v>
@@ -2999,7 +2999,7 @@
         <v>57</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
@@ -3008,96 +3008,96 @@
         <v>111</v>
       </c>
       <c r="G22">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
+        <v>3.2</v>
+      </c>
+      <c r="I22">
         <v>3.5</v>
       </c>
-      <c r="I22">
-        <v>2.8</v>
-      </c>
       <c r="J22">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K22">
-        <v>14.75</v>
+        <v>6.5</v>
       </c>
       <c r="L22">
+        <v>1.44</v>
+      </c>
+      <c r="M22">
+        <v>2.62</v>
+      </c>
+      <c r="N22">
+        <v>2.38</v>
+      </c>
+      <c r="O22">
+        <v>1.53</v>
+      </c>
+      <c r="P22">
+        <v>1.44</v>
+      </c>
+      <c r="Q22">
+        <v>2.62</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>1.7</v>
+      </c>
+      <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <v>1.36</v>
+      </c>
+      <c r="V22">
+        <v>1.65</v>
+      </c>
+      <c r="W22">
+        <v>1.11</v>
+      </c>
+      <c r="X22">
+        <v>1.3</v>
+      </c>
+      <c r="Y22">
+        <v>1.48</v>
+      </c>
+      <c r="Z22">
         <v>1.2</v>
       </c>
-      <c r="M22">
-        <v>4.02</v>
-      </c>
-      <c r="N22">
+      <c r="AA22">
+        <v>2.68</v>
+      </c>
+      <c r="AB22">
+        <v>1.41</v>
+      </c>
+      <c r="AC22">
+        <v>9</v>
+      </c>
+      <c r="AD22">
+        <v>3.48</v>
+      </c>
+      <c r="AE22">
+        <v>1.25</v>
+      </c>
+      <c r="AF22">
+        <v>1.47</v>
+      </c>
+      <c r="AG22">
         <v>1.83</v>
       </c>
-      <c r="O22">
-        <v>1.9</v>
-      </c>
-      <c r="P22">
-        <v>1.33</v>
-      </c>
-      <c r="Q22">
-        <v>3.04</v>
-      </c>
-      <c r="R22">
-        <v>1.57</v>
-      </c>
-      <c r="S22">
-        <v>2.3</v>
-      </c>
-      <c r="T22">
-        <v>1.36</v>
-      </c>
-      <c r="U22">
-        <v>1.25</v>
-      </c>
-      <c r="V22">
-        <v>1.55</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1.75</v>
-      </c>
-      <c r="Z22">
-        <v>1.19</v>
-      </c>
-      <c r="AA22">
-        <v>2.94</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>45086</v>
@@ -3106,7 +3106,7 @@
         <v>57</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -3115,91 +3115,91 @@
         <v>112</v>
       </c>
       <c r="G23">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H23">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I23">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J23">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K23">
-        <v>6.5</v>
+        <v>14.75</v>
       </c>
       <c r="L23">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="M23">
-        <v>2.62</v>
+        <v>4.02</v>
       </c>
       <c r="N23">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="O23">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="P23">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Q23">
-        <v>2.62</v>
+        <v>3.04</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="S23">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="T23">
+        <v>1.36</v>
+      </c>
+      <c r="U23">
         <v>1.25</v>
       </c>
-      <c r="U23">
-        <v>1.36</v>
-      </c>
       <c r="V23">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="W23">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="Z23">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AA23">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="AB23">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AC23">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD23">
-        <v>3.48</v>
+        <v>2.57</v>
       </c>
       <c r="AE23">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AF23">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AG23">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AH23">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="AI23">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3222,13 +3222,13 @@
         <v>113</v>
       </c>
       <c r="G24">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H24">
-        <v>4.75</v>
+        <v>4.93</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>7.69</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>114</v>
       </c>
       <c r="G25">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="H25">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="I25">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J25">
         <v>1.03</v>
@@ -3350,10 +3350,10 @@
         <v>2.93</v>
       </c>
       <c r="N25">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="P25">
         <v>1.5</v>
@@ -3436,13 +3436,13 @@
         <v>115</v>
       </c>
       <c r="G26">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H26">
-        <v>5.6</v>
+        <v>4.93</v>
       </c>
       <c r="I26">
-        <v>9.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J26">
         <v>1.02</v>
@@ -3499,28 +3499,28 @@
         <v>2.37</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3543,13 +3543,13 @@
         <v>116</v>
       </c>
       <c r="G27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="I27">
-        <v>5.5</v>
+        <v>6.47</v>
       </c>
       <c r="J27">
         <v>1.04</v>
@@ -3564,10 +3564,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P27">
         <v>1.35</v>
@@ -3650,13 +3650,13 @@
         <v>117</v>
       </c>
       <c r="G28">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="H28">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="I28">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="J28">
         <v>1.09</v>
@@ -3671,10 +3671,10 @@
         <v>2.6</v>
       </c>
       <c r="N28">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="O28">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P28">
         <v>1.51</v>
@@ -3757,13 +3757,13 @@
         <v>118</v>
       </c>
       <c r="G29">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H29">
-        <v>3.64</v>
+        <v>3.4</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>3.88</v>
       </c>
       <c r="J29">
         <v>1.08</v>
@@ -3772,16 +3772,16 @@
         <v>7</v>
       </c>
       <c r="L29">
+        <v>1.49</v>
+      </c>
+      <c r="M29">
+        <v>2.48</v>
+      </c>
+      <c r="N29">
+        <v>2.4</v>
+      </c>
+      <c r="O29">
         <v>1.44</v>
-      </c>
-      <c r="M29">
-        <v>2.5</v>
-      </c>
-      <c r="N29">
-        <v>2.37</v>
-      </c>
-      <c r="O29">
-        <v>1.52</v>
       </c>
       <c r="P29">
         <v>1.52</v>
@@ -3838,10 +3838,10 @@
         <v>3.04</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3864,13 +3864,13 @@
         <v>119</v>
       </c>
       <c r="G30">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="I30">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="J30">
         <v>1.04</v>
@@ -3885,10 +3885,10 @@
         <v>3.63</v>
       </c>
       <c r="N30">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="O30">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="P30">
         <v>1.35</v>
@@ -3927,28 +3927,28 @@
         <v>3.01</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
